--- a/アドベンチャーゲーム予定表.xlsx
+++ b/アドベンチャーゲーム予定表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Desktop\Adventure-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB4F908-79C3-4BEE-B573-6E87C9408789}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12256D59-5D9E-4A1E-944B-9C543DD32F30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7470" activeTab="2" xr2:uid="{C767D366-C4D6-43DA-94EE-84B21405DD22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7470" xr2:uid="{C767D366-C4D6-43DA-94EE-84B21405DD22}"/>
   </bookViews>
   <sheets>
     <sheet name="作業予定" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>アドベンチャーゲーム予定表</t>
     <rPh sb="10" eb="12">
@@ -309,16 +309,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>デキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロパティ設定をGUIで描画させるようにする</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ビョウガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -837,6 +827,33 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ファイルボタンの生成およびプルダウンメニューの生成</t>
+    <rPh sb="8" eb="10">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ設定をGUIで描画させるようにする(ファイルボタン)</t>
+    <rPh sb="5" eb="7">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生成</t>
+    <rPh sb="0" eb="2">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1325,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6986C272-2139-4D83-AB17-65CC81D08C41}">
   <dimension ref="A1:V280"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1343,10 +1360,10 @@
   <sheetData>
     <row r="1" spans="1:22" ht="38.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>0</v>
@@ -1433,7 +1450,7 @@
         <v>描画関係</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7">
         <f>IFERROR(SUM($Q4:$V4),"")</f>
@@ -1670,12 +1687,14 @@
       <c r="A11" s="5">
         <v>43320</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5">
+        <v>43321</v>
+      </c>
       <c r="C11" s="9">
         <v>4</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -1686,14 +1705,22 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
       <c r="M11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" s="1" t="str">
         <f>IFERROR(VLOOKUP($M11,検索範囲!$A$1:$B$81,2,FALSE),"")</f>
-        <v>機能</v>
-      </c>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+        <v>ファイル</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7">
+        <f>IFERROR(SUM($Q11:$V11),"")</f>
+        <v>5.8263888888888893E-2</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>5.8263888888888893E-2</v>
+      </c>
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="7"/>
@@ -1709,7 +1736,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -1811,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1845,7 +1872,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -1879,7 +1906,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
@@ -1913,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
@@ -1947,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1981,7 +2008,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14"/>
@@ -2015,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -2049,7 +2076,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
@@ -2083,7 +2110,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2117,7 +2144,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
@@ -2151,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
@@ -2185,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
@@ -2219,7 +2246,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
@@ -2253,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
@@ -2287,7 +2314,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
@@ -2321,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -2355,7 +2382,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
@@ -2389,7 +2416,7 @@
         <v>5</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
@@ -2423,7 +2450,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
@@ -2457,7 +2484,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
@@ -8838,7 +8865,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8846,7 +8873,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8854,7 +8881,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8862,7 +8889,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8870,7 +8897,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8878,7 +8905,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8886,7 +8913,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8894,7 +8921,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8902,7 +8929,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8910,7 +8937,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8918,7 +8945,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8926,7 +8953,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8934,7 +8961,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -8947,15 +8974,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8A6E57-2951-4132-9BA4-09E747193988}">
   <dimension ref="A1:T137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:T5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:20" ht="41.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
@@ -8979,7 +9006,7 @@
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -8992,7 +9019,7 @@
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -9007,7 +9034,7 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -9020,7 +9047,7 @@
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
@@ -9030,9 +9057,13 @@
       <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="16"/>
+      <c r="A5" s="16">
+        <v>43321</v>
+      </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
@@ -12386,7 +12417,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="32.5" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -12400,10 +12431,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -12413,7 +12444,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -12422,7 +12453,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
@@ -12430,7 +12461,7 @@
         <v>43320</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -12440,7 +12471,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -12449,7 +12480,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
